--- a/carcass_stats.xlsx
+++ b/carcass_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CA14"/>
+  <dimension ref="A1:CA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,226 +838,226 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>19.30584634957826</v>
+        <v>19.26884087260978</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6127607449526008</v>
+        <v>0.7134725658107847</v>
       </c>
       <c r="G2" t="n">
-        <v>18.48077352259926</v>
+        <v>18.67497329598098</v>
       </c>
       <c r="H2" t="n">
-        <v>18.80375026036557</v>
+        <v>18.80458659667568</v>
       </c>
       <c r="I2" t="n">
-        <v>19.58996380590353</v>
+        <v>19.06655117323281</v>
       </c>
       <c r="J2" t="n">
-        <v>19.73334993844225</v>
+        <v>19.53080544916691</v>
       </c>
       <c r="K2" t="n">
-        <v>19.8515525685885</v>
+        <v>20.2672878479925</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>29.75074418385823</v>
+        <v>19.04196117582306</v>
       </c>
       <c r="N2" t="n">
-        <v>2.702643567849245</v>
+        <v>0.2108373835214111</v>
       </c>
       <c r="O2" t="n">
-        <v>27.36402130126953</v>
+        <v>18.73288729761402</v>
       </c>
       <c r="P2" t="n">
-        <v>27.7798171043396</v>
+        <v>18.99881182528927</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.65571594238281</v>
+        <v>19.11929258588342</v>
       </c>
       <c r="R2" t="n">
-        <v>31.67085456848145</v>
+        <v>19.16244193641721</v>
       </c>
       <c r="S2" t="n">
-        <v>33.66526031494141</v>
+        <v>19.19637223391139</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>24.83071653279987</v>
+        <v>17.87964660890752</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5006766201259925</v>
+        <v>1.06174212928057</v>
       </c>
       <c r="W2" t="n">
-        <v>24.18187251614571</v>
+        <v>16.8435589757707</v>
       </c>
       <c r="X2" t="n">
-        <v>24.42400385997215</v>
+        <v>17.06185101076658</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.98992067933692</v>
+        <v>17.80786540202262</v>
       </c>
       <c r="Z2" t="n">
-        <v>25.2079508268998</v>
+        <v>18.62566100016356</v>
       </c>
       <c r="AA2" t="n">
-        <v>25.30659285904164</v>
+        <v>19.05929665581413</v>
       </c>
       <c r="AB2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.524870183221604</v>
+        <v>-1.389194263702257</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.1655972515316648</v>
+        <v>0.7769815343630329</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.253655616388578</v>
+        <v>-1.831414320210282</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.47728184087666</v>
+        <v>-1.797482629836916</v>
       </c>
       <c r="AG2" t="n">
-        <v>5.546094376783103</v>
+        <v>-1.74967403709392</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.58176629262671</v>
+        <v>-1.341385670959261</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.755375469225747</v>
+        <v>-0.2260146604109075</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK2" t="n">
-        <v>10.44489783427998</v>
+        <v>-0.2268796967867148</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.500998158805776</v>
+        <v>0.9222269677879128</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.630108453244546</v>
+        <v>-1.534400550378479</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.546389416142386</v>
+        <v>-0.5319936238776348</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.1208734078583</v>
+        <v>0.05274141265060628</v>
       </c>
       <c r="AP2" t="n">
-        <v>12.16199676139025</v>
+        <v>0.3578553397415263</v>
       </c>
       <c r="AQ2" t="n">
-        <v>13.93359910524739</v>
+        <v>0.5213989379304067</v>
       </c>
       <c r="AR2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.629186602531215</v>
+        <v>2.368966200158792</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1655972515316648</v>
+        <v>0.7769815343630329</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.357972035698189</v>
+        <v>1.926746143650767</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.581598260186272</v>
+        <v>1.960677834024134</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.650410796092714</v>
+        <v>2.00848642676713</v>
       </c>
       <c r="AX2" t="n">
-        <v>2.686082711936322</v>
+        <v>2.416774792901788</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.859691888535359</v>
+        <v>3.532145803450142</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.235127219837842</v>
+        <v>2.912354732977529</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.500998158805776</v>
+        <v>0.9222269677879128</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.420337838802411</v>
+        <v>1.604833879385765</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.336618801700251</v>
+        <v>2.607240805886609</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.91110279341617</v>
+        <v>3.19197584241485</v>
       </c>
       <c r="BF2" t="n">
-        <v>6.952226146948117</v>
+        <v>3.49708976950577</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.723828490805253</v>
+        <v>3.660633367694651</v>
       </c>
       <c r="BH2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.1625362336440709</v>
+        <v>0.2116722339226221</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.01904407041828957</v>
+        <v>0.08392074737863231</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.1377675588911436</v>
+        <v>0.08644067789585402</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.1553989067529905</v>
+        <v>0.2033539682906821</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.1592748865249264</v>
+        <v>0.2486132679061509</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.1671147256809429</v>
+        <v>0.256931533538091</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.195065151028135</v>
+        <v>0.2630217219823326</v>
       </c>
       <c r="BP2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.06609504129024281</v>
+        <v>0.1575025154474901</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.07640261748233769</v>
+        <v>0.1162245847373193</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.00236518952674591</v>
+        <v>0.07907506420174763</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.01101905055040881</v>
+        <v>0.08875188952070631</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.03370833936551486</v>
+        <v>0.1110807263730859</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.1108171002051405</v>
+        <v>0.1798313522998696</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.1868124047199586</v>
+        <v>0.3287735448420409</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.007774709191740143</v>
+        <v>0.04196037368931615</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03119123797412882</v>
+        <v>0.05811229236865966</v>
       </c>
       <c r="BZ2" t="inlineStr">
         <is>
@@ -1083,226 +1083,226 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>19.17317305592352</v>
+        <v>18.80318497167931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3006369628567122</v>
+        <v>0.8142909714771414</v>
       </c>
       <c r="G3" t="n">
-        <v>18.74123013239454</v>
+        <v>17.855012022324</v>
       </c>
       <c r="H3" t="n">
-        <v>18.98563330878</v>
+        <v>18.45035218415739</v>
       </c>
       <c r="I3" t="n">
-        <v>19.22098613579317</v>
+        <v>18.76222509072958</v>
       </c>
       <c r="J3" t="n">
-        <v>19.43506296950923</v>
+        <v>19.1150578782515</v>
       </c>
       <c r="K3" t="n">
-        <v>19.44223165103671</v>
+        <v>19.8332776829341</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>28.47787348429362</v>
+        <v>18.86099036496055</v>
       </c>
       <c r="N3" t="n">
-        <v>1.886717723462686</v>
+        <v>0.2470972981469182</v>
       </c>
       <c r="O3" t="n">
-        <v>26.12953758239746</v>
+        <v>18.62197738770175</v>
       </c>
       <c r="P3" t="n">
-        <v>26.96626281738281</v>
+        <v>18.72931476431763</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.72346210479736</v>
+        <v>18.80961609385145</v>
       </c>
       <c r="R3" t="n">
-        <v>29.8673210144043</v>
+        <v>18.94129169449437</v>
       </c>
       <c r="S3" t="n">
-        <v>30.66164207458496</v>
+        <v>19.20275188443757</v>
       </c>
       <c r="T3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>24.59693489453053</v>
+        <v>17.5009845123275</v>
       </c>
       <c r="V3" t="n">
-        <v>1.577463150802626</v>
+        <v>0.5468978409061582</v>
       </c>
       <c r="W3" t="n">
-        <v>22.53960724831242</v>
+        <v>17.01856887516649</v>
       </c>
       <c r="X3" t="n">
-        <v>23.29718203953155</v>
+        <v>17.03320626500888</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.46732832083304</v>
+        <v>17.48500305517008</v>
       </c>
       <c r="Z3" t="n">
-        <v>25.64001305591269</v>
+        <v>17.9527813024887</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.83597089716775</v>
+        <v>18.01536306380337</v>
       </c>
       <c r="AB3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.423761838607014</v>
+        <v>-1.302200459351812</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.530413352316267</v>
+        <v>0.4958346005702527</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.097375597275715</v>
+        <v>-1.817914619130732</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.451133700900574</v>
+        <v>-1.677151176984204</v>
       </c>
       <c r="AG3" t="n">
-        <v>6.298008029224988</v>
+        <v>-1.286980295454429</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.406346918586296</v>
+        <v>-0.912029577822036</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.571210569417225</v>
+        <v>-0.816926627367657</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK3" t="n">
-        <v>9.304700428370101</v>
+        <v>0.05780539328123968</v>
       </c>
       <c r="AL3" t="n">
-        <v>2.093453183978952</v>
+        <v>1.05272226304371</v>
       </c>
       <c r="AM3" t="n">
-        <v>6.688093408286491</v>
+        <v>-1.211300295232345</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.572312197995778</v>
+        <v>-0.3857431139338736</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.631731213081739</v>
+        <v>0.0473910031218665</v>
       </c>
       <c r="AP3" t="n">
-        <v>10.88392698424376</v>
+        <v>0.4909395103369798</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11.68948196817241</v>
+        <v>1.347739862113571</v>
       </c>
       <c r="AR3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.528078257916626</v>
+        <v>2.455960004509238</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.530413352316267</v>
+        <v>0.4958346005702527</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2016920165853264</v>
+        <v>1.940245844730317</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.555450120210185</v>
+        <v>2.081009286876845</v>
       </c>
       <c r="AW3" t="n">
-        <v>3.4023244485346</v>
+        <v>2.471180168406621</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.510663337895908</v>
+        <v>2.846130886039013</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.675526988726837</v>
+        <v>2.941233836493392</v>
       </c>
       <c r="AZ3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA3" t="n">
-        <v>4.094929813927966</v>
+        <v>3.197039823045484</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.093453183978952</v>
+        <v>1.05272226304371</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.478322793844356</v>
+        <v>1.927934134531899</v>
       </c>
       <c r="BD3" t="n">
-        <v>2.362541583553643</v>
+        <v>2.75349131583037</v>
       </c>
       <c r="BE3" t="n">
-        <v>4.421960598639604</v>
+        <v>3.18662543288611</v>
       </c>
       <c r="BF3" t="n">
-        <v>5.674156369801626</v>
+        <v>3.630173940101224</v>
       </c>
       <c r="BG3" t="n">
-        <v>6.479711353730274</v>
+        <v>4.486974291877814</v>
       </c>
       <c r="BH3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.2895546054419724</v>
+        <v>0.1904282417836003</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.3310937893632503</v>
+        <v>0.06415935332736111</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.07826293424872474</v>
+        <v>0.130196824210066</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.08774940617995204</v>
+        <v>0.139167920574558</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.0946824745221341</v>
+        <v>0.1854720548435158</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.4097190188284821</v>
+        <v>0.236732376052558</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.869530165695685</v>
+        <v>0.2605720332373036</v>
       </c>
       <c r="BP3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.1289106816784773</v>
+        <v>0.1320956628673011</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.1547296169557334</v>
+        <v>0.09303261070912487</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01120501698734014</v>
+        <v>0.04459499795772306</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.02128601086901617</v>
+        <v>0.08498067928182539</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.04761868888690621</v>
+        <v>0.1104912141409356</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.2336102432241206</v>
+        <v>0.1576061977264113</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.3589058157767998</v>
+        <v>0.26280522522961</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.1351684734907493</v>
+        <v>0.03207967666368056</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.06316810160630652</v>
+        <v>0.04651630535456244</v>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
@@ -1328,226 +1328,226 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>19.99408632810431</v>
+        <v>17.22417564244376</v>
       </c>
       <c r="F4" t="n">
-        <v>1.057612650513441</v>
+        <v>0.3890298675815784</v>
       </c>
       <c r="G4" t="n">
-        <v>18.6148896160509</v>
+        <v>16.82375048844726</v>
       </c>
       <c r="H4" t="n">
-        <v>19.13079929006378</v>
+        <v>17.03590897465537</v>
       </c>
       <c r="I4" t="n">
-        <v>20.54910885019063</v>
+        <v>17.24806746086349</v>
       </c>
       <c r="J4" t="n">
-        <v>20.71141277448471</v>
+        <v>17.424388219442</v>
       </c>
       <c r="K4" t="n">
-        <v>20.8278671329228</v>
+        <v>17.60070897802052</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>29.95854091644287</v>
+        <v>19.77932092270183</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7661806766619628</v>
+        <v>2.711936181772364</v>
       </c>
       <c r="O4" t="n">
-        <v>29.06418991088867</v>
+        <v>18.04817691180584</v>
       </c>
       <c r="P4" t="n">
-        <v>29.3699312210083</v>
+        <v>18.2166064748805</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.91063404083252</v>
+        <v>18.38503603795516</v>
       </c>
       <c r="R4" t="n">
-        <v>30.60226726531982</v>
+        <v>20.64489292814982</v>
       </c>
       <c r="S4" t="n">
-        <v>30.8432788848877</v>
+        <v>22.90474981834448</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>25.63191338059681</v>
+        <v>17.8002698805848</v>
       </c>
       <c r="V4" t="n">
-        <v>1.262675734964113</v>
+        <v>2.500531671655589</v>
       </c>
       <c r="W4" t="n">
-        <v>24.11012484965568</v>
+        <v>16.03360728814923</v>
       </c>
       <c r="X4" t="n">
-        <v>24.57717542912558</v>
+        <v>16.36968612359134</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.801091614536</v>
+        <v>16.70576495903344</v>
       </c>
       <c r="Z4" t="n">
-        <v>26.59943176264221</v>
+        <v>18.68360117680258</v>
       </c>
       <c r="AA4" t="n">
-        <v>27.04442369218679</v>
+        <v>20.66143739457172</v>
       </c>
       <c r="AB4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.6378270524925</v>
+        <v>0.5760942381410411</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.6373207635757849</v>
+        <v>2.155321670504711</v>
       </c>
       <c r="AE4" t="n">
-        <v>4.939626385050211</v>
+        <v>-0.7901432002980258</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.165012469837926</v>
+        <v>-0.6662228510640382</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.508697369671005</v>
+        <v>-0.5423025018300507</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.120787004862386</v>
+        <v>1.259212957360575</v>
       </c>
       <c r="AI4" t="n">
-        <v>6.494673470743031</v>
+        <v>3.0607284165512</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK4" t="n">
-        <v>9.96445458833856</v>
+        <v>2.555145280258072</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.792252376755579</v>
+        <v>3.072879410064372</v>
       </c>
       <c r="AM4" t="n">
-        <v>8.298889618723649</v>
+        <v>0.4474679337853225</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.611914001581827</v>
+        <v>0.7922182554384971</v>
       </c>
       <c r="AO4" t="n">
-        <v>9.361525190641888</v>
+        <v>1.136968577091672</v>
       </c>
       <c r="AP4" t="n">
-        <v>11.48073886906673</v>
+        <v>3.608983953494446</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12.21560049625378</v>
+        <v>6.080999329897221</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.742143471802111</v>
+        <v>4.334254702002091</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.637320763575785</v>
+        <v>2.155321670504711</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.043942804359823</v>
+        <v>2.968017263563024</v>
       </c>
       <c r="AV4" t="n">
-        <v>2.269328889147538</v>
+        <v>3.091937612797011</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.613013788980616</v>
+        <v>3.215857962030999</v>
       </c>
       <c r="AX4" t="n">
-        <v>3.225103424171998</v>
+        <v>5.017373421221624</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.598989890052643</v>
+        <v>6.818888880412249</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BA4" t="n">
-        <v>4.754683973896426</v>
+        <v>5.694379710022315</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.792252376755579</v>
+        <v>3.072879410064371</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.089119004281514</v>
+        <v>3.586702363549566</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.402143387139692</v>
+        <v>3.931452685202741</v>
       </c>
       <c r="BE4" t="n">
-        <v>4.151754576199753</v>
+        <v>4.276203006855916</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.270968254624597</v>
+        <v>6.74821838325869</v>
       </c>
       <c r="BG4" t="n">
-        <v>7.00582988181165</v>
+        <v>9.220233759661465</v>
       </c>
       <c r="BH4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.1613168647014517</v>
+        <v>0.08142958532110309</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.06488989940433358</v>
+        <v>0.06365350613564758</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.08252700588438407</v>
+        <v>0.008857474483486579</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1098352282872358</v>
+        <v>0.05824335947484043</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1635841269917529</v>
+        <v>0.1076292444661943</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.2087362129816125</v>
+        <v>0.1177156407399113</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.2425000913101912</v>
+        <v>0.1278020370136284</v>
       </c>
       <c r="BP4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.05967931352316259</v>
+        <v>0.04550653357649608</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.04797546313422997</v>
+        <v>0.0411192999456526</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.007780993652939611</v>
+        <v>0.001676613934527886</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.01996411104772037</v>
+        <v>0.02664335261937787</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.05626023079606519</v>
+        <v>0.05161009130422786</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.09836276254216661</v>
+        <v>0.06742149339748019</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.1175120816380997</v>
+        <v>0.0832328954907325</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.02649119050019123</v>
+        <v>0.03675036890227962</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01958590080876147</v>
+        <v>0.02374023889251149</v>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
@@ -1573,226 +1573,226 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>19.49962183075725</v>
+        <v>17.74854383082556</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5009196439564926</v>
+        <v>0.4610887007526832</v>
       </c>
       <c r="G5" t="n">
-        <v>18.83718233483427</v>
+        <v>17.31017883540795</v>
       </c>
       <c r="H5" t="n">
-        <v>19.08829769902169</v>
+        <v>17.49132776020003</v>
       </c>
       <c r="I5" t="n">
-        <v>19.68131799257894</v>
+        <v>17.64878510067891</v>
       </c>
       <c r="J5" t="n">
-        <v>19.86755626061199</v>
+        <v>17.90600117130444</v>
       </c>
       <c r="K5" t="n">
-        <v>19.97765271342571</v>
+        <v>18.38642628653648</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>29.73867829640706</v>
+        <v>19.76292843075001</v>
       </c>
       <c r="N5" t="n">
-        <v>1.019366048791601</v>
+        <v>1.338453210160184</v>
       </c>
       <c r="O5" t="n">
-        <v>28.76515197753906</v>
+        <v>17.837980179444</v>
       </c>
       <c r="P5" t="n">
-        <v>28.9617600440979</v>
+        <v>19.35967168312919</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.43124198913574</v>
+        <v>20.26567820819573</v>
       </c>
       <c r="R5" t="n">
-        <v>30.55837154388428</v>
+        <v>20.66893495581656</v>
       </c>
       <c r="S5" t="n">
-        <v>31.06508636474609</v>
+        <v>20.68237712716458</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>24.12843478561176</v>
+        <v>16.29736254848714</v>
       </c>
       <c r="V5" t="n">
-        <v>1.684047473383245</v>
+        <v>0.7154877010028123</v>
       </c>
       <c r="W5" t="n">
-        <v>22.19833472981198</v>
+        <v>15.22931045446485</v>
       </c>
       <c r="X5" t="n">
-        <v>22.71172387709966</v>
+        <v>16.25629185885196</v>
       </c>
       <c r="Y5" t="n">
-        <v>24.17188543189513</v>
+        <v>16.60382632104844</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.53619359322851</v>
+        <v>16.64489701068362</v>
       </c>
       <c r="AA5" t="n">
-        <v>26.01253678089421</v>
+        <v>16.75248709738682</v>
       </c>
       <c r="AB5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC5" t="n">
-        <v>4.62881295485452</v>
+        <v>-1.451181282338424</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.21292779177297</v>
+        <v>0.5101838973967618</v>
       </c>
       <c r="AE5" t="n">
-        <v>3.340918293312043</v>
+        <v>-2.0808683809431</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.607420984437717</v>
+        <v>-1.745671487098026</v>
       </c>
       <c r="AG5" t="n">
-        <v>4.490567439316198</v>
+        <v>-1.390589830864545</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.684890082055041</v>
+        <v>-1.096099626104944</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.054788094736466</v>
+        <v>-0.9426770866815062</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>10.23905646564982</v>
+        <v>2.014384599924449</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.6415272921092221</v>
+        <v>1.081199572287386</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.68695782726121</v>
+        <v>0.5278013440360496</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.833181663846437</v>
+        <v>1.722732374606882</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.911012900266666</v>
+        <v>2.208496779379294</v>
       </c>
       <c r="AP5" t="n">
-        <v>10.69916276482811</v>
+        <v>2.50014900469686</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11.15623786138275</v>
+        <v>3.112743496903157</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.733129374164131</v>
+        <v>2.306979181522625</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.21292779177297</v>
+        <v>0.5101838973967618</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.4452347126216551</v>
+        <v>1.677292082917949</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.7117374037473283</v>
+        <v>2.012488976763023</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.59488385862581</v>
+        <v>2.367570632996504</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.789206501364653</v>
+        <v>2.662060837756106</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.159104514046078</v>
+        <v>2.815483377179543</v>
       </c>
       <c r="AZ5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.029285851207683</v>
+        <v>5.153619029688692</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.6415272921092221</v>
+        <v>1.081199572287386</v>
       </c>
       <c r="BC5" t="n">
-        <v>4.477187212819075</v>
+        <v>3.667035773800293</v>
       </c>
       <c r="BD5" t="n">
-        <v>4.623411049404302</v>
+        <v>4.861966804371126</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.701242285824531</v>
+        <v>5.347731209143538</v>
       </c>
       <c r="BF5" t="n">
-        <v>5.489392150385974</v>
+        <v>5.639383434461104</v>
       </c>
       <c r="BG5" t="n">
-        <v>5.946467246940614</v>
+        <v>6.251977926667401</v>
       </c>
       <c r="BH5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.3915941936507698</v>
+        <v>0.2119482557403647</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2803156851691016</v>
+        <v>0.07672869833668584</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1119475985787095</v>
+        <v>0.1420545180966141</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.1600097414757794</v>
+        <v>0.1582846963648724</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.3327071377108984</v>
+        <v>0.1965347715466267</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.6346476808954133</v>
+        <v>0.2501983309221191</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.7344648165497877</v>
+        <v>0.3126689617715915</v>
       </c>
       <c r="BP5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.03296207447341049</v>
+        <v>0.03526246830230545</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01229527294365435</v>
+        <v>0.02950117983565605</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0162156734669414</v>
+        <v>0.01312100532799355</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.02346803844772975</v>
+        <v>0.02061459749239801</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.03844280354436484</v>
+        <v>0.02460197313096564</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.04058282266440077</v>
+        <v>0.03924984394087308</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.04489855383152774</v>
+        <v>0.07872492161929698</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.1144383992604922</v>
+        <v>0.03836434916834292</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.005019524160033478</v>
+        <v>0.01475058991782803</v>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
@@ -1818,226 +1818,226 @@
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>20.26729973746044</v>
+        <v>17.65542099925884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4431298649666875</v>
+        <v>0.3459591234994064</v>
       </c>
       <c r="G6" t="n">
-        <v>19.84912708897176</v>
+        <v>17.34941234240835</v>
       </c>
       <c r="H6" t="n">
-        <v>19.9724664373306</v>
+        <v>17.35947031068061</v>
       </c>
       <c r="I6" t="n">
-        <v>20.0773207723954</v>
+        <v>17.64980667108527</v>
       </c>
       <c r="J6" t="n">
-        <v>20.63181001778849</v>
+        <v>17.9457573596635</v>
       </c>
       <c r="K6" t="n">
-        <v>20.84587503243824</v>
+        <v>17.97265831245647</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>30.56427542368571</v>
+        <v>17.93901232512226</v>
       </c>
       <c r="N6" t="n">
-        <v>1.36266034760106</v>
+        <v>0.4249936139956647</v>
       </c>
       <c r="O6" t="n">
-        <v>29.44689178466797</v>
+        <v>17.55895984510537</v>
       </c>
       <c r="P6" t="n">
-        <v>29.51150321960449</v>
+        <v>17.57769938970614</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.98081970214844</v>
+        <v>17.93328613009375</v>
       </c>
       <c r="R6" t="n">
-        <v>31.54077386856079</v>
+        <v>18.29459906550987</v>
       </c>
       <c r="S6" t="n">
-        <v>32.56129837036133</v>
+        <v>18.33051719519619</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
-        <v>25.26355581686971</v>
+        <v>16.75233108340215</v>
       </c>
       <c r="V6" t="n">
-        <v>1.064529580116378</v>
+        <v>1.227256500283797</v>
       </c>
       <c r="W6" t="n">
-        <v>23.9030192308016</v>
+        <v>15.29935109469895</v>
       </c>
       <c r="X6" t="n">
-        <v>24.36587429584243</v>
+        <v>16.12539793284778</v>
       </c>
       <c r="Y6" t="n">
-        <v>25.70956115401636</v>
+        <v>16.74143553423544</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.0150720327261</v>
+        <v>17.36836868478981</v>
       </c>
       <c r="AA6" t="n">
-        <v>26.22430569363679</v>
+        <v>18.22710217043876</v>
       </c>
       <c r="AB6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.996256079409268</v>
+        <v>-0.9030899158566914</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9243381446241957</v>
+        <v>1.444724297662651</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.831959245987818</v>
+        <v>-2.673307217757525</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.198887147559544</v>
+        <v>-1.379825902072606</v>
       </c>
       <c r="AG6" t="n">
-        <v>5.337245839805835</v>
+        <v>-0.9016658246683189</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.65373569562419</v>
+        <v>-0.4249298384524041</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.892418986481701</v>
+        <v>0.8642792036673974</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK6" t="n">
-        <v>10.29697568622527</v>
+        <v>0.2835913258634237</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.9383100216489448</v>
+        <v>0.5627433127221546</v>
       </c>
       <c r="AM6" t="n">
-        <v>9.502923359509985</v>
+        <v>-0.388712407883407</v>
       </c>
       <c r="AN6" t="n">
-        <v>9.597903576283704</v>
+        <v>0.04992455677965246</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.90608298860942</v>
+        <v>0.2709864292746342</v>
       </c>
       <c r="AP6" t="n">
-        <v>10.89187747577</v>
+        <v>0.5046531983584055</v>
       </c>
       <c r="AQ6" t="n">
-        <v>11.75111203695746</v>
+        <v>0.9811048527878334</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.100572498718881</v>
+        <v>2.855070548004358</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.9243381446241958</v>
+        <v>1.444724297662651</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.9362756652974298</v>
+        <v>1.084853246103524</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.303203566869156</v>
+        <v>2.378334561788443</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.441562259115447</v>
+        <v>2.85649463919273</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.758052114933802</v>
+        <v>3.333230625408645</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.996735405791313</v>
+        <v>4.622439667528447</v>
       </c>
       <c r="AZ6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
-        <v>5.087205071783132</v>
+        <v>3.422825755627668</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.9383100216489448</v>
+        <v>0.5627433127221546</v>
       </c>
       <c r="BC6" t="n">
-        <v>4.29315274506785</v>
+        <v>2.750522021880837</v>
       </c>
       <c r="BD6" t="n">
-        <v>4.388132961841569</v>
+        <v>3.189158986543896</v>
       </c>
       <c r="BE6" t="n">
-        <v>4.696312374167285</v>
+        <v>3.410220859038878</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.682106861327863</v>
+        <v>3.643887628122649</v>
       </c>
       <c r="BG6" t="n">
-        <v>6.541341422515323</v>
+        <v>4.120339282552077</v>
       </c>
       <c r="BH6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.2790455391285467</v>
+        <v>0.1970828548523981</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.1884057257861435</v>
+        <v>0.1886326905873836</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.1252831758044688</v>
+        <v>0.04059822133341985</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.1485295098396524</v>
+        <v>0.1103852474465677</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.1843455967915565</v>
+        <v>0.1381464883452407</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.4369322968156547</v>
+        <v>0.2248440957510711</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.5225801877043267</v>
+        <v>0.4714402213856911</v>
       </c>
       <c r="BP6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.03417482742872498</v>
+        <v>0.09861890163084708</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.01740971978096296</v>
+        <v>0.03775198025721546</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.01073643304160362</v>
+        <v>0.05749820456336147</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.02028856256061242</v>
+        <v>0.08135538239687516</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.03943294673248946</v>
+        <v>0.09419014519721154</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.04775742207150337</v>
+        <v>0.1114536644311834</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.05100728971127259</v>
+        <v>0.1485971115656037</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.07691631546579644</v>
+        <v>0.09431634529369182</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.007107488338033029</v>
+        <v>0.01887599012860773</v>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
@@ -2063,226 +2063,226 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>20.45860140821835</v>
+        <v>18.06926712093223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5270430683590264</v>
+        <v>1.004342187793753</v>
       </c>
       <c r="G7" t="n">
-        <v>19.75384893581476</v>
+        <v>16.83325780606062</v>
       </c>
       <c r="H7" t="n">
-        <v>20.04431736199082</v>
+        <v>17.46050321670364</v>
       </c>
       <c r="I7" t="n">
-        <v>20.63577841742525</v>
+        <v>18.26773243355313</v>
       </c>
       <c r="J7" t="n">
-        <v>20.84677787729765</v>
+        <v>18.87649633778172</v>
       </c>
       <c r="K7" t="n">
-        <v>20.96192797121039</v>
+        <v>18.90834581056206</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>30.28232542673747</v>
+        <v>17.8795835865625</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8339336565664773</v>
+        <v>2.449406264613204</v>
       </c>
       <c r="O7" t="n">
-        <v>29.50673484802246</v>
+        <v>16.19541762076719</v>
       </c>
       <c r="P7" t="n">
-        <v>29.68169260025024</v>
+        <v>16.40361436161288</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.9538106918335</v>
+        <v>16.92382441853093</v>
       </c>
       <c r="R7" t="n">
-        <v>30.87571859359741</v>
+        <v>18.39979364348055</v>
       </c>
       <c r="S7" t="n">
-        <v>31.50558853149414</v>
+        <v>21.47526788842094</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
-        <v>26.56684201072932</v>
+        <v>16.38146152374004</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4320277385542322</v>
+        <v>1.382392325791439</v>
       </c>
       <c r="W7" t="n">
-        <v>25.95732275985972</v>
+        <v>15.10771938299389</v>
       </c>
       <c r="X7" t="n">
-        <v>26.23930979338819</v>
+        <v>15.28571557257517</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.74418771077329</v>
+        <v>16.22630512558333</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.85780977652858</v>
+        <v>17.32205107674819</v>
       </c>
       <c r="AA7" t="n">
-        <v>26.98865293026282</v>
+        <v>17.96551646079959</v>
       </c>
       <c r="AB7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.108240602510977</v>
+        <v>-1.6878055971922</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.70194359034595</v>
+        <v>1.660741218143865</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.33320029291928</v>
+        <v>-3.758160463861049</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.568345627907009</v>
+        <v>-2.290127512338519</v>
       </c>
       <c r="AG7" t="n">
-        <v>5.987371940534103</v>
+        <v>-1.644496682728013</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.684122769334689</v>
+        <v>-1.042174767581693</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.996456205112182</v>
+        <v>0.2959314405482765</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
-        <v>9.823724018519117</v>
+        <v>-0.1896835343697347</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.521607251946286</v>
+        <v>1.942524075301208</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.069713745217761</v>
+        <v>-1.533710248728308</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.588684566286094</v>
+        <v>-1.489053111795172</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.789740824073842</v>
+        <v>-0.9172059651583151</v>
       </c>
       <c r="AP7" t="n">
-        <v>10.0817752707623</v>
+        <v>0.3821636122671226</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10.59236281773396</v>
+        <v>2.609388041566</v>
       </c>
       <c r="AR7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.212557021820589</v>
+        <v>2.07035486666885</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.70194359034595</v>
+        <v>1.660741218143865</v>
       </c>
       <c r="AU7" t="n">
-        <v>2.437516712228891</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.672662047216621</v>
+        <v>1.46803295152253</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.091688359843715</v>
+        <v>2.113663781133036</v>
       </c>
       <c r="AX7" t="n">
-        <v>3.788439188644301</v>
+        <v>2.715985696279356</v>
       </c>
       <c r="AY7" t="n">
-        <v>4.100772624421793</v>
+        <v>4.054091904409326</v>
       </c>
       <c r="AZ7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.613953404076983</v>
+        <v>2.949550895394509</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.521607251946286</v>
+        <v>1.942524075301208</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.859943130775626</v>
+        <v>1.605524181035936</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.378913951843959</v>
+        <v>1.650181317969071</v>
       </c>
       <c r="BE7" t="n">
-        <v>4.579970209631707</v>
+        <v>2.222028464605929</v>
       </c>
       <c r="BF7" t="n">
-        <v>4.872004656320165</v>
+        <v>3.521398042031366</v>
       </c>
       <c r="BG7" t="n">
-        <v>5.382592203291829</v>
+        <v>5.748622471330243</v>
       </c>
       <c r="BH7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.1183508117663467</v>
+        <v>0.3812583017157641</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.05248724087963836</v>
+        <v>0.4209059203925811</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0582833404092503</v>
+        <v>0.06020003331439654</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.07474666637578695</v>
+        <v>0.1705527807491672</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.1175215482001274</v>
+        <v>0.2324165867743301</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1581470857125393</v>
+        <v>0.443122107740927</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.1846011298042253</v>
+        <v>1</v>
       </c>
       <c r="BP7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.04309405950077957</v>
+        <v>0.2020596883225491</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.01548560847040977</v>
+        <v>0.1479657342619692</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0239705661953494</v>
+        <v>0.01859911168813092</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.03421915568374157</v>
+        <v>0.1139200303030901</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.04199172982517722</v>
+        <v>0.2305116854538481</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0480806192021347</v>
+        <v>0.3186513434733071</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.06887178452792335</v>
+        <v>0.3286162706943692</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.02142782636027735</v>
+        <v>0.2104529601962906</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.006321973184837506</v>
+        <v>0.07398286713098461</v>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
@@ -2308,226 +2308,226 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>19.09054199069558</v>
+        <v>19.1378534352539</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09804768305516394</v>
+        <v>0.4473199974988549</v>
       </c>
       <c r="G8" t="n">
-        <v>18.96135288495644</v>
+        <v>18.769417176592</v>
       </c>
       <c r="H8" t="n">
-        <v>19.01915735089926</v>
+        <v>18.92598765049003</v>
       </c>
       <c r="I8" t="n">
-        <v>19.10359604335071</v>
+        <v>18.99652586915596</v>
       </c>
       <c r="J8" t="n">
-        <v>19.14766021576889</v>
+        <v>19.20839165391983</v>
       </c>
       <c r="K8" t="n">
-        <v>19.22134757919189</v>
+        <v>19.78894482611168</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>28.37683550516764</v>
+        <v>17.46844268246719</v>
       </c>
       <c r="N8" t="n">
-        <v>2.401647832936647</v>
+        <v>0.2027860180071816</v>
       </c>
       <c r="O8" t="n">
-        <v>25.94089698791504</v>
+        <v>17.174600105952</v>
       </c>
       <c r="P8" t="n">
-        <v>26.46228837966919</v>
+        <v>17.42480610335846</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.86416625976562</v>
+        <v>17.53195700272222</v>
       </c>
       <c r="R8" t="n">
-        <v>30.33782052993774</v>
+        <v>17.57559358183094</v>
       </c>
       <c r="S8" t="n">
-        <v>31.43441581726074</v>
+        <v>17.63525661847231</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>22.80589843190604</v>
+        <v>17.2510235192921</v>
       </c>
       <c r="V8" t="n">
-        <v>0.845043882970405</v>
+        <v>0.7735422608984771</v>
       </c>
       <c r="W8" t="n">
-        <v>21.89119165829705</v>
+        <v>16.37534589217913</v>
       </c>
       <c r="X8" t="n">
-        <v>22.08804384013483</v>
+        <v>16.80120431453941</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.74924211814639</v>
+        <v>17.22227130554134</v>
       </c>
       <c r="Z8" t="n">
-        <v>23.50097258621808</v>
+        <v>17.67209051029404</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.82652087380682</v>
+        <v>18.1842055739066</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.715356441210464</v>
+        <v>-1.886829915961795</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7833509182304098</v>
+        <v>0.4950712313195564</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.895683580690388</v>
+        <v>-2.602831916276909</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.06169228161953</v>
+        <v>-2.020403020018597</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.593515743161905</v>
+        <v>-1.715499653402118</v>
       </c>
       <c r="AH8" t="n">
-        <v>4.360057806735993</v>
+        <v>-1.581926549345315</v>
       </c>
       <c r="AI8" t="n">
-        <v>4.709433957882489</v>
+        <v>-1.513488440766036</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>9.286293514472062</v>
+        <v>-1.669410752786713</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.343308375103319</v>
+        <v>0.3286678189496098</v>
       </c>
       <c r="AM8" t="n">
-        <v>6.945388910308381</v>
+        <v>-2.15368820763937</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.435936821153886</v>
+        <v>-1.734534854889841</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.708439884781139</v>
+        <v>-1.532393388301044</v>
       </c>
       <c r="AP8" t="n">
-        <v>11.19690575045566</v>
+        <v>-1.467269286197916</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12.31732890133641</v>
+        <v>-1.459168026905395</v>
       </c>
       <c r="AR8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.8196728605200754</v>
+        <v>1.871330547899254</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.7833509182304098</v>
+        <v>0.4950712313195564</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>1.155328547584141</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.166008700929142</v>
+        <v>1.737757443842452</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.6978321624715171</v>
+        <v>2.042660810458932</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.464374226045605</v>
+        <v>2.176233914515734</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.8137503771921</v>
+        <v>2.244672023095013</v>
       </c>
       <c r="AZ8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA8" t="n">
-        <v>4.076522900029928</v>
+        <v>1.469823676977531</v>
       </c>
       <c r="BB8" t="n">
-        <v>2.343308375103319</v>
+        <v>0.3286678189496098</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.735618295866246</v>
+        <v>0.9855462221248743</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.226166206711751</v>
+        <v>1.404699574874403</v>
       </c>
       <c r="BE8" t="n">
-        <v>3.498669270339004</v>
+        <v>1.6068410414632</v>
       </c>
       <c r="BF8" t="n">
-        <v>5.987135136013528</v>
+        <v>1.671965143566328</v>
       </c>
       <c r="BG8" t="n">
-        <v>7.107558286894275</v>
+        <v>1.680066402858849</v>
       </c>
       <c r="BH8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.6353327425561246</v>
+        <v>0.2867071237934792</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.3106128023375663</v>
+        <v>0.1103025580920486</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.2844505198599407</v>
+        <v>0.211001911967433</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.3746742876233791</v>
+        <v>0.2213346842069887</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.6197683103760809</v>
+        <v>0.2434313258929367</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.9012168536081452</v>
+        <v>0.3088037654794272</v>
       </c>
       <c r="BO8" t="n">
-        <v>1</v>
+        <v>0.4489639314206106</v>
       </c>
       <c r="BP8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.1282715145123436</v>
+        <v>0.3685876055241203</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.128874952268287</v>
+        <v>0.09203306184203054</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.007251231320497757</v>
+        <v>0.3120682733426583</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0263119072756646</v>
+        <v>0.3138272271758344</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.08925792812075103</v>
+        <v>0.32862383699489</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.2310033361701631</v>
+        <v>0.3833842153431758</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.3002802936647921</v>
+        <v>0.505034474764043</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.1268071455505013</v>
+        <v>0.0551512790460243</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.05261297894714011</v>
+        <v>0.04601653092101527</v>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
@@ -2553,226 +2553,226 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>18.68048125702792</v>
+        <v>17.74549256524171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2160847889019474</v>
+        <v>0.4774951648754405</v>
       </c>
       <c r="G9" t="n">
-        <v>18.46302901497806</v>
+        <v>17.11706284917836</v>
       </c>
       <c r="H9" t="n">
-        <v>18.54897919385224</v>
+        <v>17.5750413275002</v>
       </c>
       <c r="I9" t="n">
-        <v>18.58984310912513</v>
+        <v>17.7981749638457</v>
       </c>
       <c r="J9" t="n">
-        <v>18.84178034777145</v>
+        <v>17.9686262015872</v>
       </c>
       <c r="K9" t="n">
-        <v>18.97905499285767</v>
+        <v>18.26855748409709</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>26.31902758280436</v>
+        <v>16.60505718649575</v>
       </c>
       <c r="N9" t="n">
-        <v>1.702380033021178</v>
+        <v>1.128022613870388</v>
       </c>
       <c r="O9" t="n">
-        <v>24.1888256072998</v>
+        <v>15.86185486552177</v>
       </c>
       <c r="P9" t="n">
-        <v>24.89562320709229</v>
+        <v>15.95986174753008</v>
       </c>
       <c r="Q9" t="n">
-        <v>26.72427272796631</v>
+        <v>16.14139380045729</v>
       </c>
       <c r="R9" t="n">
-        <v>27.6324610710144</v>
+        <v>16.78658923942295</v>
       </c>
       <c r="S9" t="n">
-        <v>28.0555305480957</v>
+        <v>18.27558627954664</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
-        <v>24.53928373005921</v>
+        <v>15.93154469046457</v>
       </c>
       <c r="V9" t="n">
-        <v>2.877268791357123</v>
+        <v>0.4315314053290781</v>
       </c>
       <c r="W9" t="n">
-        <v>22.57053444513357</v>
+        <v>15.52519668615271</v>
       </c>
       <c r="X9" t="n">
-        <v>22.70155497743648</v>
+        <v>15.71542223507625</v>
       </c>
       <c r="Y9" t="n">
-        <v>22.73511108146402</v>
+        <v>15.8314208379263</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.79728783832032</v>
+        <v>16.04754329331462</v>
       </c>
       <c r="AA9" t="n">
-        <v>28.35322940559392</v>
+        <v>16.53814039985295</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.858802473031293</v>
+        <v>-1.813947874777142</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.975638798344074</v>
+        <v>0.4968552330199327</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.591479452275898</v>
+        <v>-2.489726732712993</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.8825694541238</v>
+        <v>-2.005199105032478</v>
       </c>
       <c r="AG9" t="n">
-        <v>4.188318073812859</v>
+        <v>-1.717778029415643</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.279402698290044</v>
+        <v>-1.526526799160308</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.76094841760959</v>
+        <v>-1.330508707564288</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.638546325776447</v>
+        <v>-1.140435378745965</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.909335778679818</v>
+        <v>0.823600558113867</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.209770614442135</v>
+        <v>-1.865845954752382</v>
       </c>
       <c r="AN9" t="n">
-        <v>6.053842859320833</v>
+        <v>-1.650255649714736</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.160046976450303</v>
+        <v>-1.351462177840514</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.057864519553043</v>
+        <v>-0.8416419068717436</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9.592501533117641</v>
+        <v>0.007028795449549818</v>
       </c>
       <c r="AR9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.963118892340905</v>
+        <v>1.944212589083907</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.975638798344074</v>
+        <v>0.4968552330199327</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.6957958715855099</v>
+        <v>1.268433731148056</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.9868858734334118</v>
+        <v>1.752961358828572</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.29263449312247</v>
+        <v>2.040382434445406</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.383719117599655</v>
+        <v>2.231633664700742</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.865264836919202</v>
+        <v>2.427651756296761</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.428775711334312</v>
+        <v>1.998799051018278</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.909335778679818</v>
+        <v>0.823600558113867</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>1.273388475011862</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.8440722448786975</v>
+        <v>1.488978780049508</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.950276362008168</v>
+        <v>1.787772251923729</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.848093905110908</v>
+        <v>2.2975925228925</v>
       </c>
       <c r="BG9" t="n">
-        <v>4.382730918675506</v>
+        <v>3.146263225213794</v>
       </c>
       <c r="BH9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.3307061672254681</v>
+        <v>0.2722573413869324</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.2617699733376245</v>
+        <v>0.1006093561161055</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.008577275424465784</v>
+        <v>0.1858677331625176</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.1033341262451401</v>
+        <v>0.2135535631589452</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.4089128998228343</v>
+        <v>0.2440257188160112</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.5064712828309423</v>
+        <v>0.3027294970439983</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.6173686493964539</v>
+        <v>0.4151101947531894</v>
       </c>
       <c r="BP9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.3754906705121483</v>
+        <v>0.2782634640066878</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.4432287643777263</v>
+        <v>0.1294866107110821</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.04793652306392658</v>
+        <v>0.1129484810825295</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.07363366982766986</v>
+        <v>0.2138360391610168</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.1296195785404831</v>
+        <v>0.2932091877754439</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.7005023766385694</v>
+        <v>0.3576366126211148</v>
       </c>
       <c r="BW9" t="n">
-        <v>1</v>
+        <v>0.413686999393334</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.1068671441098562</v>
+        <v>0.05030467805805273</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.1809473853416171</v>
+        <v>0.06474330535554107</v>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
@@ -2798,226 +2798,226 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>20.17953797946345</v>
+        <v>18.30416288448745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5097290569213013</v>
+        <v>0.2667760540587402</v>
       </c>
       <c r="G10" t="n">
-        <v>19.49703422742966</v>
+        <v>17.97371055920968</v>
       </c>
       <c r="H10" t="n">
-        <v>19.79198344327587</v>
+        <v>18.17990634179398</v>
       </c>
       <c r="I10" t="n">
-        <v>20.28986657224966</v>
+        <v>18.31508308352364</v>
       </c>
       <c r="J10" t="n">
-        <v>20.5632589380034</v>
+        <v>18.43933962621711</v>
       </c>
       <c r="K10" t="n">
-        <v>20.72004837797915</v>
+        <v>18.61277481169285</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>27.7432959874471</v>
+        <v>16.30126448139652</v>
       </c>
       <c r="N10" t="n">
-        <v>0.09807558809250963</v>
+        <v>0.8337746360462048</v>
       </c>
       <c r="O10" t="n">
-        <v>27.59077835083008</v>
+        <v>15.67352602156995</v>
       </c>
       <c r="P10" t="n">
-        <v>27.71804618835449</v>
+        <v>15.76769824784836</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.75503253936768</v>
+        <v>16.01623938469343</v>
       </c>
       <c r="R10" t="n">
-        <v>27.75767087936401</v>
+        <v>16.5498056182416</v>
       </c>
       <c r="S10" t="n">
-        <v>27.8946647644043</v>
+        <v>17.49905313462929</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
-        <v>25.45925875130784</v>
+        <v>16.75755839816573</v>
       </c>
       <c r="V10" t="n">
-        <v>0.864257526707213</v>
+        <v>1.228284911780366</v>
       </c>
       <c r="W10" t="n">
-        <v>24.54419787910471</v>
+        <v>15.668660307282</v>
       </c>
       <c r="X10" t="n">
-        <v>24.76438270258482</v>
+        <v>15.94587095461882</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.33389768179421</v>
+        <v>16.46456895720428</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.15507126084305</v>
+        <v>17.27625640075118</v>
       </c>
       <c r="AA10" t="n">
-        <v>26.54021910177958</v>
+        <v>18.43243537097235</v>
       </c>
       <c r="AB10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.279720771844389</v>
+        <v>-1.546604486321727</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7254398475781869</v>
+        <v>0.9807524013960127</v>
       </c>
       <c r="AE10" t="n">
-        <v>4.635093709132171</v>
+        <v>-2.305050251927682</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.736563687974352</v>
+        <v>-2.234035387175158</v>
       </c>
       <c r="AG10" t="n">
-        <v>4.997418383532093</v>
+        <v>-1.850514126319363</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.842833482666029</v>
+        <v>-1.163083225465932</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.274143516370863</v>
+        <v>-0.1803394407205019</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.56375800798365</v>
+        <v>-2.00289840309093</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.4356861308955906</v>
+        <v>0.8773256832769769</v>
       </c>
       <c r="AM10" t="n">
-        <v>7.10858363214416</v>
+        <v>-2.813685821751692</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.241303412283756</v>
+        <v>-2.634755641252021</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.466917866837257</v>
+        <v>-2.157716513758057</v>
       </c>
       <c r="AP10" t="n">
-        <v>7.840737027152592</v>
+        <v>-1.525859275596966</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.208686674059599</v>
+        <v>-0.8824747630959138</v>
       </c>
       <c r="AR10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.384037191154</v>
+        <v>2.211555977539322</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7254398475781869</v>
+        <v>0.9807524013960127</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.739410128441783</v>
+        <v>1.453110211933367</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.840880107283963</v>
+        <v>1.524125076685891</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.101734802841705</v>
+        <v>1.907646337541687</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.94714990197564</v>
+        <v>2.595077238395118</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.378459935680475</v>
+        <v>3.577821023140547</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.353987393541515</v>
+        <v>1.136336026673314</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.4356861308955906</v>
+        <v>0.8773256832769769</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.898813017702025</v>
+        <v>0.3255486080125518</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.031532797841621</v>
+        <v>0.5044787885122228</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.257147252395121</v>
+        <v>0.9815179160061867</v>
       </c>
       <c r="BF10" t="n">
-        <v>2.630966412710457</v>
+        <v>1.613375154167278</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.998916059617464</v>
+        <v>2.25675966666833</v>
       </c>
       <c r="BH10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.2104794754492969</v>
+        <v>0.2496755324161891</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0888802258612276</v>
+        <v>0.130611889845805</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.09615729112860287</v>
+        <v>0.08374686391760854</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.1371875463317075</v>
+        <v>0.1767042552896613</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.2331164399173345</v>
+        <v>0.274861036734469</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.2801166070729657</v>
+        <v>0.3478323138609968</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.2994921038045016</v>
+        <v>0.3652331922782096</v>
       </c>
       <c r="BP10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.2028025226680746</v>
+        <v>0.5157044267993358</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.05686444719051145</v>
+        <v>0.2695980728461678</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.1250939515674125</v>
+        <v>0.2092414145356388</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.1630941537487136</v>
+        <v>0.3367212908036344</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.2092180226042588</v>
+        <v>0.5277907072031021</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.2453557812241982</v>
+        <v>0.7067738431988035</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.2681639076714745</v>
+        <v>0.7979948782555004</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0362852002638882</v>
+        <v>0.06530594492290252</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02321481335369892</v>
+        <v>0.1347990364230839</v>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
@@ -3043,226 +3043,226 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>19.10268382101427</v>
+        <v>19.23307824756006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1678144056400862</v>
+        <v>0.2996536330366476</v>
       </c>
       <c r="G11" t="n">
-        <v>18.90107893696877</v>
+        <v>18.90292050781684</v>
       </c>
       <c r="H11" t="n">
-        <v>18.95944236079586</v>
+        <v>19.10319980115502</v>
       </c>
       <c r="I11" t="n">
-        <v>19.12998929967866</v>
+        <v>19.20042999779313</v>
       </c>
       <c r="J11" t="n">
-        <v>19.22141529372174</v>
+        <v>19.33030844419817</v>
       </c>
       <c r="K11" t="n">
-        <v>19.30056138352187</v>
+        <v>19.62853248683713</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>27.98039309183757</v>
+        <v>18.32265912618826</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3022307179018502</v>
+        <v>0.864888258566995</v>
       </c>
       <c r="O11" t="n">
-        <v>27.54529571533203</v>
+        <v>17.40243744501315</v>
       </c>
       <c r="P11" t="n">
-        <v>27.79069805145264</v>
+        <v>17.69319171133655</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.99918746948242</v>
+        <v>18.33413236984717</v>
       </c>
       <c r="R11" t="n">
-        <v>28.22119808197021</v>
+        <v>18.96359978469888</v>
       </c>
       <c r="S11" t="n">
-        <v>28.32228469848633</v>
+        <v>19.21993432004555</v>
       </c>
       <c r="T11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U11" t="n">
-        <v>23.34242207964494</v>
+        <v>16.3837869504793</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1431766922405623</v>
+        <v>0.3739922161634665</v>
       </c>
       <c r="W11" t="n">
-        <v>23.15511774608146</v>
+        <v>15.99060730519863</v>
       </c>
       <c r="X11" t="n">
-        <v>23.28689209414958</v>
+        <v>16.11049045047079</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.32710037315866</v>
+        <v>16.38144805279895</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.36990444832557</v>
+        <v>16.65474455280746</v>
       </c>
       <c r="AA11" t="n">
-        <v>23.58755217760979</v>
+        <v>16.78164439112065</v>
       </c>
       <c r="AB11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.23973825863067</v>
+        <v>-2.849291297080762</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.09090288707997225</v>
+        <v>0.2391691077695031</v>
       </c>
       <c r="AE11" t="n">
-        <v>4.117334942421969</v>
+        <v>-3.179352260402451</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.186969058700136</v>
+        <v>-2.930004136887973</v>
       </c>
       <c r="AG11" t="n">
-        <v>4.240979103528286</v>
+        <v>-2.799678552319238</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.278752797844113</v>
+        <v>-2.718965712512027</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.378826662598669</v>
+        <v>-2.618455823282122</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK11" t="n">
-        <v>8.87770927082329</v>
+        <v>-0.9104191213717989</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.2912307143813048</v>
+        <v>0.7251296652233471</v>
       </c>
       <c r="AM11" t="n">
-        <v>8.429056215507096</v>
+        <v>-1.500483062803692</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.707623992561158</v>
+        <v>-1.455713738106544</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.01543888659161</v>
+        <v>-1.095584088563987</v>
       </c>
       <c r="AP11" t="n">
-        <v>9.021070737705434</v>
+        <v>-0.5502894718292417</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9.178354586955045</v>
+        <v>0.04997475444447019</v>
       </c>
       <c r="AR11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.344054677940282</v>
+        <v>0.9088691667802871</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.09090288707997225</v>
+        <v>0.2391691077695031</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.221651361731581</v>
+        <v>0.578808203458598</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.291285478009748</v>
+        <v>0.8281563269730765</v>
       </c>
       <c r="AW11" t="n">
-        <v>1.345295522837898</v>
+        <v>0.9584819115418117</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.383069217153725</v>
+        <v>1.039194751349022</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.483143081908281</v>
+        <v>1.139704640578927</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
-        <v>3.667938656381156</v>
+        <v>2.228815308392445</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.2912307143813048</v>
+        <v>0.7251296652233471</v>
       </c>
       <c r="BC11" t="n">
-        <v>3.219285601064961</v>
+        <v>1.638751366960552</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.497853378119023</v>
+        <v>1.6835206916577</v>
       </c>
       <c r="BE11" t="n">
-        <v>3.805668272149475</v>
+        <v>2.043650341200257</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.811300123263299</v>
+        <v>2.588944957935002</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.96858397251291</v>
+        <v>3.189209184208714</v>
       </c>
       <c r="BH11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.3945615812725956</v>
+        <v>0.5382791089775139</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0247219637071751</v>
+        <v>0.09312016783074628</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.3577086518394053</v>
+        <v>0.4538524842551347</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.3834210931423362</v>
+        <v>0.486986654341927</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.3935894857540539</v>
+        <v>0.5148736606886372</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.4086413280253693</v>
+        <v>0.566166115324224</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.4287916265671557</v>
+        <v>0.6695166302776464</v>
       </c>
       <c r="BP11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.08007332128531543</v>
+        <v>0.2324554995863222</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.01705737449298617</v>
+        <v>0.1006603705570687</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.06387592230388733</v>
+        <v>0.1096357957481369</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.07123353119248524</v>
+        <v>0.1706091693406893</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.07151235906698572</v>
+        <v>0.2495259555313045</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0891467366794987</v>
+        <v>0.3113722857769375</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1073738361560457</v>
+        <v>0.3211342915345428</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0100926994203639</v>
+        <v>0.04656008391537314</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.006963643976563508</v>
+        <v>0.05033018527853433</v>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
@@ -3288,226 +3288,226 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>21.62747832631036</v>
+        <v>19.94548533274035</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06589830555399991</v>
+        <v>0.5665196599876404</v>
       </c>
       <c r="G12" t="n">
-        <v>21.5021434307424</v>
+        <v>19.37864660029022</v>
       </c>
       <c r="H12" t="n">
-        <v>21.63208696526689</v>
+        <v>19.57081929289481</v>
       </c>
       <c r="I12" t="n">
-        <v>21.64062976542593</v>
+        <v>19.86808044599911</v>
       </c>
       <c r="J12" t="n">
-        <v>21.65085092824808</v>
+        <v>20.24274648584464</v>
       </c>
       <c r="K12" t="n">
-        <v>21.69796964853189</v>
+        <v>20.66713383867295</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>31.61118094126384</v>
+        <v>17.62659798643322</v>
       </c>
       <c r="N12" t="n">
-        <v>1.17188514857096</v>
+        <v>0.3546426283595478</v>
       </c>
       <c r="O12" t="n">
-        <v>30.30311584472656</v>
+        <v>17.28227381264924</v>
       </c>
       <c r="P12" t="n">
-        <v>30.6173095703125</v>
+        <v>17.46649300984384</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.54942798614502</v>
+        <v>17.55067309964002</v>
       </c>
       <c r="R12" t="n">
-        <v>32.56963014602661</v>
+        <v>17.7107780762294</v>
       </c>
       <c r="S12" t="n">
-        <v>33.04881286621094</v>
+        <v>18.12277193380361</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>25.97067334683521</v>
+        <v>18.14972685752829</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3557407623562004</v>
+        <v>1.097970206633377</v>
       </c>
       <c r="W12" t="n">
-        <v>25.54628863303306</v>
+        <v>16.54660180937823</v>
       </c>
       <c r="X12" t="n">
-        <v>25.70145380291556</v>
+        <v>17.96301371326791</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.95138260840013</v>
+        <v>18.51176702255616</v>
       </c>
       <c r="Z12" t="n">
-        <v>26.25853535414143</v>
+        <v>18.69848016681654</v>
       </c>
       <c r="AA12" t="n">
-        <v>26.39592242736871</v>
+        <v>19.02877157562261</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.343195020524854</v>
+        <v>-1.795758475212057</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3486521020079375</v>
+        <v>0.7476325229233458</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.893380433035503</v>
+        <v>-2.832044790911983</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.069366837648678</v>
+        <v>-1.957610962981057</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.382020684102812</v>
+        <v>-1.652247641693878</v>
       </c>
       <c r="AH12" t="n">
-        <v>4.609522260056917</v>
+        <v>-1.490395153924877</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.751243314369077</v>
+        <v>-1.046493826548488</v>
       </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.983702614953476</v>
+        <v>-2.318887346307124</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.223146381253854</v>
+        <v>0.5926877419094811</v>
       </c>
       <c r="AM12" t="n">
-        <v>8.605146196194674</v>
+        <v>-3.139234429764244</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.970573185563385</v>
+        <v>-2.549260890776389</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.90468367722012</v>
+        <v>-2.165557572772686</v>
       </c>
       <c r="AP12" t="n">
-        <v>10.93754318075973</v>
+        <v>-1.935184028303421</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11.54666943546854</v>
+        <v>-1.805199809918882</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.447511439834466</v>
+        <v>1.962401988648993</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.3486521020079375</v>
+        <v>0.7476325229233458</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9976968523451148</v>
+        <v>0.9261156729490665</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.17368325695829</v>
+        <v>1.800549500879992</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.486337103412424</v>
+        <v>2.105912822167172</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.713838679366528</v>
+        <v>2.267765309936173</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.855559733678689</v>
+        <v>2.711666637312561</v>
       </c>
       <c r="AZ12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.773932000511341</v>
+        <v>0.8203470834571194</v>
       </c>
       <c r="BB12" t="n">
-        <v>1.223146381253854</v>
+        <v>0.5926877419094811</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.395375581752539</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.76080257112125</v>
+        <v>0.5899735389878549</v>
       </c>
       <c r="BE12" t="n">
-        <v>4.694913062777985</v>
+        <v>0.9736768569915579</v>
       </c>
       <c r="BF12" t="n">
-        <v>5.727772566317592</v>
+        <v>1.204050401460822</v>
       </c>
       <c r="BG12" t="n">
-        <v>6.336898821026402</v>
+        <v>1.334034619845362</v>
       </c>
       <c r="BH12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.3757455785621652</v>
+        <v>0.285889223483475</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.09169070654869974</v>
+        <v>0.1646072891765647</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.276325434390197</v>
+        <v>0.1526535835816536</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.3053993950916886</v>
+        <v>0.2107227156999991</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.3574518937462223</v>
+        <v>0.2323149652177108</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.4451606031764394</v>
+        <v>0.3074814730011867</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.5007988476303276</v>
+        <v>0.5262733799168248</v>
       </c>
       <c r="BP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0479591364125728</v>
+        <v>0.6059105014492864</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.03524013775038211</v>
+        <v>0.2738256853760068</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.01237095922294216</v>
+        <v>0.3966574030332071</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0198454663587255</v>
+        <v>0.4346307489593195</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.03933277073555176</v>
+        <v>0.5134923013819692</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.07608233657208831</v>
+        <v>0.684772053871936</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.09503642769734059</v>
+        <v>1</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.0374325741999304</v>
+        <v>0.08230364458828233</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.01438672599230454</v>
+        <v>0.1369128426880034</v>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
@@ -3533,226 +3533,226 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>21.6482005476509</v>
+        <v>18.77403862168882</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6108027065142804</v>
+        <v>0.9041010094222073</v>
       </c>
       <c r="G13" t="n">
-        <v>20.92030359719566</v>
+        <v>17.65821878155358</v>
       </c>
       <c r="H13" t="n">
-        <v>21.16183909653519</v>
+        <v>18.34002040327043</v>
       </c>
       <c r="I13" t="n">
-        <v>21.65794467656221</v>
+        <v>18.81097743473828</v>
       </c>
       <c r="J13" t="n">
-        <v>22.15670027812278</v>
+        <v>19.24499565315666</v>
       </c>
       <c r="K13" t="n">
-        <v>22.33358762041617</v>
+        <v>19.81598083572514</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>31.69046338399251</v>
+        <v>17.48709316057813</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5214106843503126</v>
+        <v>1.760808161179366</v>
       </c>
       <c r="O13" t="n">
-        <v>30.89157295227051</v>
+        <v>16.53158931257094</v>
       </c>
       <c r="P13" t="n">
-        <v>31.37460947036743</v>
+        <v>16.59746241016375</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.80580139160156</v>
+        <v>16.64493968267442</v>
       </c>
       <c r="R13" t="n">
-        <v>32.09208679199219</v>
+        <v>17.5345704330888</v>
       </c>
       <c r="S13" t="n">
-        <v>32.22121047973633</v>
+        <v>20.12690396439272</v>
       </c>
       <c r="T13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>28.12286080984003</v>
+        <v>17.32785023772594</v>
       </c>
       <c r="V13" t="n">
-        <v>2.103753762686564</v>
+        <v>1.14951848834343</v>
       </c>
       <c r="W13" t="n">
-        <v>25.9429984161408</v>
+        <v>16.02372649011885</v>
       </c>
       <c r="X13" t="n">
-        <v>26.40653994953138</v>
+        <v>16.62793435231516</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.72213819193077</v>
+        <v>17.30840960466548</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.90684807172945</v>
+        <v>18.00832549007626</v>
       </c>
       <c r="AA13" t="n">
-        <v>30.74679815864393</v>
+        <v>18.67085525145394</v>
       </c>
       <c r="AB13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC13" t="n">
-        <v>6.474660262189132</v>
+        <v>-1.446188383962876</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.510769855280812</v>
+        <v>0.2847598911619142</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.022694818945141</v>
+        <v>-1.737950637462109</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.236182291007983</v>
+        <v>-1.660356877941571</v>
       </c>
       <c r="AG13" t="n">
-        <v>6.064193515368558</v>
+        <v>-1.450838657059101</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.746430468270868</v>
+        <v>-1.236670163080406</v>
       </c>
       <c r="AI13" t="n">
-        <v>8.42952505465977</v>
+        <v>-1.145125584271192</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK13" t="n">
-        <v>10.04226283634161</v>
+        <v>-1.286945461110688</v>
       </c>
       <c r="AL13" t="n">
-        <v>1.079042939406649</v>
+        <v>1.226749298471966</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.574299848286351</v>
+        <v>-2.523077946396231</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.214191866908852</v>
+        <v>-2.053390752490468</v>
       </c>
       <c r="AO13" t="n">
-        <v>10.27799892695341</v>
+        <v>-1.467813513357054</v>
       </c>
       <c r="AP13" t="n">
-        <v>10.85563950334184</v>
+        <v>-0.7013682219772743</v>
       </c>
       <c r="AQ13" t="n">
-        <v>11.21550344015785</v>
+        <v>0.3109231286675893</v>
       </c>
       <c r="AR13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>3.578976681498743</v>
+        <v>2.311972079898173</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.510769855280812</v>
+        <v>0.2847598911619142</v>
       </c>
       <c r="AU13" t="n">
-        <v>2.127011238254752</v>
+        <v>2.02020982639894</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.340498710317595</v>
+        <v>2.097803585919478</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.16850993467817</v>
+        <v>2.307321806801948</v>
       </c>
       <c r="AX13" t="n">
-        <v>4.850746887580479</v>
+        <v>2.521490300780643</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.533841473969382</v>
+        <v>2.613034879589858</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA13" t="n">
-        <v>4.832492221899478</v>
+        <v>1.852288968653556</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.079042939406649</v>
+        <v>1.226749298471966</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.364529233844216</v>
+        <v>0.6161564833680124</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.004421252466717</v>
+        <v>1.085843677273776</v>
       </c>
       <c r="BE13" t="n">
-        <v>5.068228312511277</v>
+        <v>1.67142091640719</v>
       </c>
       <c r="BF13" t="n">
-        <v>5.645868888899704</v>
+        <v>2.437866207786969</v>
       </c>
       <c r="BG13" t="n">
-        <v>6.005732825715718</v>
+        <v>3.450157558431833</v>
       </c>
       <c r="BH13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.1209222959025743</v>
+        <v>0.2043314972032479</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.09180203217256656</v>
+        <v>0.03992452075943831</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.02158478489849833</v>
+        <v>0.1634549667193676</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.04095918354434502</v>
+        <v>0.1742782122495808</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.1144422323626471</v>
+        <v>0.2036743514630256</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.2008615982752072</v>
+        <v>0.2337276364166927</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.228931638274015</v>
+        <v>0.2465223191675731</v>
       </c>
       <c r="BP13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.04446271071673591</v>
+        <v>0.3499392580717371</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0336493072261152</v>
+        <v>0.2430363850992825</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.01556303426070761</v>
+        <v>0.09149536313411689</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.02013299720295826</v>
+        <v>0.1977646939621518</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.03032316894769244</v>
+        <v>0.3279274815477489</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.06513604205874776</v>
+        <v>0.4801020456573343</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.09709028576050985</v>
+        <v>0.652406706057334</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.03747802269555885</v>
+        <v>0.01996226037971915</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01373727215035484</v>
+        <v>0.1215181925496412</v>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
@@ -3762,251 +3762,6 @@
       <c r="CA13" t="inlineStr">
         <is>
           <t>Yellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.36729082864112</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1392607179173337</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19.16218424449241</v>
-      </c>
-      <c r="H14" t="n">
-        <v>19.28153013274209</v>
-      </c>
-      <c r="I14" t="n">
-        <v>19.39412847438612</v>
-      </c>
-      <c r="J14" t="n">
-        <v>19.45272009819364</v>
-      </c>
-      <c r="K14" t="n">
-        <v>19.5370557869252</v>
-      </c>
-      <c r="L14" t="n">
-        <v>6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>33.1428419748942</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.9024490139694721</v>
-      </c>
-      <c r="O14" t="n">
-        <v>32.20791244506836</v>
-      </c>
-      <c r="P14" t="n">
-        <v>32.5687427520752</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>32.97959136962891</v>
-      </c>
-      <c r="R14" t="n">
-        <v>33.38769054412842</v>
-      </c>
-      <c r="S14" t="n">
-        <v>34.73443984985352</v>
-      </c>
-      <c r="T14" t="n">
-        <v>6</v>
-      </c>
-      <c r="U14" t="n">
-        <v>35.06325519969165</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.8962381765587117</v>
-      </c>
-      <c r="W14" t="n">
-        <v>34.08478205348986</v>
-      </c>
-      <c r="X14" t="n">
-        <v>34.23266287202868</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>35.11878354558508</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>35.87996544088125</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>35.9862</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>15.69596437105052</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1.021007962042827</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>14.54772626656466</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>14.78632077359177</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15.72465507119896</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16.59205730838243</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>16.82401575550759</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>13.77555114625308</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0.9399905993155716</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>13.04572820057595</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>13.08347982562515</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13.50762123921652</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13.99994006949903</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>15.48619049782161</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>12.80028079036013</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>1.021007962042827</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>11.65204268587427</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>11.89063719290139</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>12.82897149050857</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>13.69637372769204</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>13.9283321748172</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>8.565780531810946</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0.9399905993155716</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>7.835957586133816</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>7.873709211183019</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>8.29785062477438</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>8.790169455056891</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>10.27641988337948</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI14" t="n">
-        <v>0.0001710537821336867</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>0.000111505598445857</v>
-      </c>
-      <c r="BK14" t="n">
-        <v>6.414373221136736e-05</v>
-      </c>
-      <c r="BL14" t="n">
-        <v>7.657298561573818e-05</v>
-      </c>
-      <c r="BM14" t="n">
-        <v>0.0001435760431745156</v>
-      </c>
-      <c r="BN14" t="n">
-        <v>0.000268436373862156</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>0.0003107317570542062</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>6</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>0.003039264919053205</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>0.001443138586263785</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>0.0008062864606101095</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>0.002264102925929906</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0.003258459892779616</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>0.004266927695032689</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0.004376649035386177</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>4.552196994267109e-05</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0.0005891588607446265</v>
-      </c>
-      <c r="BZ14" t="inlineStr">
-        <is>
-          <t>P0</t>
-        </is>
-      </c>
-      <c r="CA14" t="inlineStr">
-        <is>
-          <t>black</t>
         </is>
       </c>
     </row>

--- a/carcass_stats.xlsx
+++ b/carcass_stats.xlsx
@@ -1328,226 +1328,226 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>17.22417564244376</v>
+        <v>17.23014859704869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3890298675815784</v>
+        <v>0.4327822234130386</v>
       </c>
       <c r="G4" t="n">
         <v>16.82375048844726</v>
       </c>
       <c r="H4" t="n">
-        <v>17.03590897465537</v>
+        <v>16.87220457073091</v>
       </c>
       <c r="I4" t="n">
-        <v>17.24806746086349</v>
+        <v>17.24453245475632</v>
       </c>
       <c r="J4" t="n">
-        <v>17.424388219442</v>
+        <v>17.6024764810741</v>
       </c>
       <c r="K4" t="n">
-        <v>17.60070897802052</v>
+        <v>17.60777899023485</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>19.77932092270183</v>
+        <v>19.43074970151516</v>
       </c>
       <c r="N4" t="n">
-        <v>2.711936181772364</v>
+        <v>2.327761773041207</v>
       </c>
       <c r="O4" t="n">
         <v>18.04817691180584</v>
       </c>
       <c r="P4" t="n">
-        <v>18.2166064748805</v>
+        <v>18.14331576257711</v>
       </c>
       <c r="Q4" t="n">
         <v>18.38503603795516</v>
       </c>
       <c r="R4" t="n">
-        <v>20.64489292814982</v>
+        <v>19.67246997689321</v>
       </c>
       <c r="S4" t="n">
         <v>22.90474981834448</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
-        <v>17.8002698805848</v>
+        <v>17.52664365019696</v>
       </c>
       <c r="V4" t="n">
-        <v>2.500531671655589</v>
+        <v>2.244350442665643</v>
       </c>
       <c r="W4" t="n">
-        <v>16.03360728814923</v>
+        <v>15.78176450473163</v>
       </c>
       <c r="X4" t="n">
-        <v>16.36968612359134</v>
+        <v>15.97064659229483</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.70576495903344</v>
+        <v>16.83168635074224</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.68360117680258</v>
+        <v>18.38768340864436</v>
       </c>
       <c r="AA4" t="n">
         <v>20.66143739457172</v>
       </c>
       <c r="AB4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5760942381410411</v>
+        <v>0.2964950531482682</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.155321670504711</v>
+        <v>1.903135609047713</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.7901432002980258</v>
+        <v>-1.106591426760499</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.6662228510640382</v>
+        <v>-0.869255256913644</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.5423025018300507</v>
+        <v>-0.3840783885988142</v>
       </c>
       <c r="AH4" t="n">
-        <v>1.259212957360575</v>
+        <v>0.7816719214630981</v>
       </c>
       <c r="AI4" t="n">
         <v>3.0607284165512</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.555145280258072</v>
+        <v>2.200601104466472</v>
       </c>
       <c r="AL4" t="n">
-        <v>3.072879410064372</v>
+        <v>2.610135201235659</v>
       </c>
       <c r="AM4" t="n">
         <v>0.4474679337853225</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7922182554384971</v>
+        <v>0.8523152630772808</v>
       </c>
       <c r="AO4" t="n">
         <v>1.136968577091672</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.608983953494446</v>
+        <v>2.485254418480863</v>
       </c>
       <c r="AQ4" t="n">
         <v>6.080999329897221</v>
       </c>
       <c r="AR4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.334254702002091</v>
+        <v>4.054655517009317</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.155321670504711</v>
+        <v>1.903135609047713</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.968017263563024</v>
+        <v>2.65156903710055</v>
       </c>
       <c r="AV4" t="n">
-        <v>3.091937612797011</v>
+        <v>2.888905206947405</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.215857962030999</v>
+        <v>3.374082075262235</v>
       </c>
       <c r="AX4" t="n">
-        <v>5.017373421221624</v>
+        <v>4.539832385324147</v>
       </c>
       <c r="AY4" t="n">
         <v>6.818888880412249</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>5.694379710022315</v>
+        <v>5.339835534230716</v>
       </c>
       <c r="BB4" t="n">
-        <v>3.072879410064371</v>
+        <v>2.610135201235659</v>
       </c>
       <c r="BC4" t="n">
         <v>3.586702363549566</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.931452685202741</v>
+        <v>3.991549692841525</v>
       </c>
       <c r="BE4" t="n">
         <v>4.276203006855916</v>
       </c>
       <c r="BF4" t="n">
-        <v>6.74821838325869</v>
+        <v>5.624488848245107</v>
       </c>
       <c r="BG4" t="n">
         <v>9.220233759661465</v>
       </c>
       <c r="BH4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.08142958532110309</v>
+        <v>0.09214871241436312</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.06365350613564758</v>
+        <v>0.06601052259395453</v>
       </c>
       <c r="BK4" t="n">
         <v>0.008857474483486579</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.05824335947484043</v>
+        <v>0.0568056970266501</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1076292444661943</v>
+        <v>0.1002952374439998</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.1177156407399113</v>
+        <v>0.1356382528317129</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.1278020370136284</v>
+        <v>0.1591469002859662</v>
       </c>
       <c r="BP4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.04550653357649608</v>
+        <v>0.04717147691994795</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0411192999456526</v>
+        <v>0.03402092871866552</v>
       </c>
       <c r="BS4" t="n">
         <v>0.001676613934527886</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.02664335261937787</v>
+        <v>0.03531152072948598</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.05161009130422786</v>
+        <v>0.05188819912726571</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.06742149339748019</v>
+        <v>0.06374815531772768</v>
       </c>
       <c r="BW4" t="n">
         <v>0.0832328954907325</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.03675036890227962</v>
+        <v>0.03300526129697726</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.02374023889251149</v>
+        <v>0.01701046435933276</v>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
